--- a/space_tech_companies_xlsx for formula reference.xlsx
+++ b/space_tech_companies_xlsx for formula reference.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jzic2\projects\equiam\linkedin_article_graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84D2174-EB85-47DF-9820-2A7C7BE427E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD8FB23-1A4F-42F3-8C29-AAEBEFA185A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14328" yWindow="-21600" windowWidth="25992" windowHeight="20976" xr2:uid="{3FFAC793-7103-4DAA-9D7A-E408B231D413}"/>
   </bookViews>
   <sheets>
     <sheet name="space_tech_companies" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -289,7 +302,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -788,8 +801,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,7 +1186,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+      <selection activeCell="F1" sqref="F1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
